--- a/wcsa5seleniumproject/Data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/Data/ActiTimeTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>USERNAME</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>MANAGER123</t>
+  </si>
+  <si>
+    <t>RETYPE PASSWORD</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>TestEng1</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
   </si>
 </sst>
 </file>
@@ -413,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -462,12 +480,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" activeCellId="1" sqref="E2 H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wcsa5seleniumproject/Data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/Data/ActiTimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
@@ -48,29 +48,29 @@
     <t>MANAGER123</t>
   </si>
   <si>
-    <t>RETYPE PASSWORD</t>
-  </si>
-  <si>
     <t>FIRST NAME</t>
   </si>
   <si>
     <t>LAST NAME</t>
   </si>
   <si>
-    <t>TestEng1</t>
-  </si>
-  <si>
     <t>Rohit</t>
   </si>
   <si>
     <t>Sharma</t>
+  </si>
+  <si>
+    <t>manager_01</t>
+  </si>
+  <si>
+    <t>manager123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +78,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,12 +139,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -407,18 +473,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -432,7 +498,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -442,48 +508,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" activeCellId="1" sqref="E2 H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -495,38 +562,32 @@
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
